--- a/results/SALIDA.xlsx
+++ b/results/SALIDA.xlsx
@@ -11,7 +11,7 @@
     <sheet sheetId="2" name="AC" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="AM" state="visible" r:id="rId6"/>
     <sheet sheetId="4" name="AP" state="visible" r:id="rId7"/>
-    <sheet sheetId="5" name="ÂT" state="visible" r:id="rId8"/>
+    <sheet sheetId="5" name="AT" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -10210,7 +10210,7 @@
   <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C103" sqref="C103"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -11276,7 +11276,7 @@
   <dimension ref="A1:D1086"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -11288,7 +11288,7 @@
       <c r="A1" t="s">
         <v>186</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>187</v>
       </c>
       <c r="D1" t="s">
@@ -17908,7 +17908,7 @@
       <c r="A1" t="s">
         <v>186</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>187</v>
       </c>
       <c r="D1" t="s">
@@ -26022,7 +26022,7 @@
       <c r="A1" t="s">
         <v>186</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>187</v>
       </c>
       <c r="D1" t="s">
@@ -33611,7 +33611,7 @@
   <dimension ref="A1:D2637"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -33620,7 +33620,7 @@
       <c r="A1" t="s">
         <v>186</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>187</v>
       </c>
       <c r="D1" t="s">
